--- a/FinalCooling_Costing_060524_prerelease_v0.1.xlsx
+++ b/FinalCooling_Costing_060524_prerelease_v0.1.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Tag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Prerelease_0.1</t>
+    <t xml:space="preserve">Prerelease_0.2</t>
   </si>
   <si>
     <t xml:space="preserve">From:</t>
@@ -67,6 +67,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Solenoid </t>
     </r>
@@ -75,6 +76,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(40 T + low Bz)</t>
     </r>
@@ -89,6 +91,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Accelerating RF Cavity </t>
     </r>
@@ -97,8 +100,9 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(0.5 m)</t>
+      <t xml:space="preserve">(0.25 m)</t>
     </r>
   </si>
   <si>
@@ -108,6 +112,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Rotating RF Cavity</t>
     </r>
@@ -116,8 +121,9 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> (0.5 m)</t>
+      <t xml:space="preserve"> (0.25 m)</t>
     </r>
   </si>
   <si>
@@ -189,6 +195,7 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5 sigma of </t>
     </r>
@@ -198,8 +205,9 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">cooled_cell_i files</t>
+      <t xml:space="preserve">cooled_cell_i file</t>
     </r>
   </si>
   <si>
@@ -222,11 +230,12 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -247,27 +256,25 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -447,260 +454,256 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -787,9 +790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>684360</xdr:colOff>
+      <xdr:colOff>683280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,7 +806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="470520" y="3146040"/>
-          <a:ext cx="9187560" cy="2995560"/>
+          <a:ext cx="9187920" cy="2994480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,1042 +934,1042 @@
   </sheetPr>
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="n">
-        <v>45418</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="12" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="Q4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="Q4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="9"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22" t="s">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="Q5" s="23" t="s">
+      <c r="O5" s="23"/>
+      <c r="Q5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24" t="s">
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="n">
+      <c r="B7" s="42" t="n">
         <v>1.2</v>
       </c>
-      <c r="C7" s="41" t="n">
+      <c r="C7" s="42" t="n">
         <f aca="false">40+O7</f>
         <v>43.5</v>
       </c>
-      <c r="D7" s="42" t="n">
+      <c r="D7" s="43" t="n">
         <v>44.7</v>
       </c>
-      <c r="E7" s="42" t="n">
+      <c r="E7" s="43" t="n">
         <v>14.5</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="44" t="n">
+      <c r="G7" s="45" t="n">
         <v>0.85</v>
       </c>
-      <c r="H7" s="45" t="n">
+      <c r="H7" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="I7" s="46" t="n">
+      <c r="I7" s="47" t="n">
         <v>16.041</v>
       </c>
-      <c r="J7" s="47" t="n">
+      <c r="J7" s="48" t="n">
         <v>72.8</v>
       </c>
-      <c r="K7" s="48" t="n">
+      <c r="K7" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="L7" s="46" t="n">
+      <c r="L7" s="47" t="n">
         <v>20.34</v>
       </c>
-      <c r="M7" s="47" t="n">
+      <c r="M7" s="48" t="n">
         <v>117</v>
       </c>
-      <c r="N7" s="49" t="n">
+      <c r="N7" s="50" t="n">
         <v>1.11</v>
       </c>
-      <c r="O7" s="44" t="n">
+      <c r="O7" s="45" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q7" s="50" t="s">
+      <c r="Q7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="51" t="s">
+      <c r="S7" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="51" t="s">
+      <c r="V7" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="41" t="n">
+      <c r="B8" s="42" t="n">
         <v>1.492</v>
       </c>
-      <c r="C8" s="41" t="n">
+      <c r="C8" s="42" t="n">
         <f aca="false">40+O8</f>
         <v>42.9</v>
       </c>
-      <c r="D8" s="42" t="n">
+      <c r="D8" s="43" t="n">
         <v>44.5</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="43" t="n">
         <v>12.3</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="44" t="n">
+      <c r="G8" s="45" t="n">
         <v>0.6</v>
       </c>
-      <c r="H8" s="45" t="n">
+      <c r="H8" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="I8" s="46" t="n">
+      <c r="I8" s="47" t="n">
         <v>15.662</v>
       </c>
-      <c r="J8" s="47" t="n">
+      <c r="J8" s="48" t="n">
         <v>69.4</v>
       </c>
-      <c r="K8" s="48" t="n">
+      <c r="K8" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="46" t="n">
+      <c r="L8" s="47" t="n">
         <v>16.04</v>
       </c>
-      <c r="M8" s="47" t="n">
+      <c r="M8" s="48" t="n">
         <v>72.8</v>
       </c>
-      <c r="N8" s="49" t="n">
+      <c r="N8" s="50" t="n">
         <v>2.2</v>
       </c>
-      <c r="O8" s="44" t="n">
+      <c r="O8" s="45" t="n">
         <v>2.9</v>
       </c>
-      <c r="Q8" s="52" t="n">
+      <c r="Q8" s="53" t="n">
         <v>18</v>
       </c>
-      <c r="R8" s="53" t="n">
+      <c r="R8" s="54" t="n">
         <v>2.5</v>
       </c>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="53" t="n">
+      <c r="T8" s="54" t="n">
         <v>80</v>
       </c>
-      <c r="U8" s="53" t="n">
+      <c r="U8" s="54" t="n">
         <v>2.5</v>
       </c>
-      <c r="V8" s="54" t="s">
+      <c r="V8" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="41" t="n">
+      <c r="B9" s="42" t="n">
         <v>1.629</v>
       </c>
-      <c r="C9" s="41" t="n">
+      <c r="C9" s="42" t="n">
         <f aca="false">40+O9</f>
         <v>42.1808418290085</v>
       </c>
-      <c r="D9" s="42" t="n">
+      <c r="D9" s="43" t="n">
         <v>43.6</v>
       </c>
-      <c r="E9" s="42" t="n">
+      <c r="E9" s="43" t="n">
         <v>10.7</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="44" t="n">
+      <c r="G9" s="45" t="n">
         <v>0.6</v>
       </c>
-      <c r="H9" s="45" t="n">
+      <c r="H9" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="46" t="n">
+      <c r="I9" s="47" t="n">
         <v>17.486</v>
       </c>
-      <c r="J9" s="47" t="n">
+      <c r="J9" s="48" t="n">
         <v>86.514</v>
       </c>
-      <c r="K9" s="48" t="n">
+      <c r="K9" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="46" t="n">
+      <c r="L9" s="47" t="n">
         <v>17.49</v>
       </c>
-      <c r="M9" s="47" t="n">
+      <c r="M9" s="48" t="n">
         <v>86.51</v>
       </c>
-      <c r="N9" s="49" t="n">
+      <c r="N9" s="50" t="n">
         <v>0.65</v>
       </c>
-      <c r="O9" s="44" t="n">
+      <c r="O9" s="45" t="n">
         <v>2.18084182900851</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="n">
+      <c r="A10" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="n">
+      <c r="B10" s="42" t="n">
         <v>1.67</v>
       </c>
-      <c r="C10" s="41" t="n">
+      <c r="C10" s="42" t="n">
         <f aca="false">40+O10</f>
         <v>41.5620830198095</v>
       </c>
-      <c r="D10" s="42" t="n">
+      <c r="D10" s="43" t="n">
         <v>42.8</v>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="43" t="n">
         <v>8.1</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="44" t="n">
+      <c r="G10" s="45" t="n">
         <v>0.625</v>
       </c>
-      <c r="H10" s="45" t="n">
+      <c r="H10" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="I10" s="46" t="n">
+      <c r="I10" s="47" t="n">
         <v>12.436</v>
       </c>
-      <c r="J10" s="47" t="n">
+      <c r="J10" s="48" t="n">
         <v>43.7575</v>
       </c>
-      <c r="K10" s="48" t="n">
+      <c r="K10" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="46" t="n">
+      <c r="L10" s="47" t="n">
         <v>12.436</v>
       </c>
-      <c r="M10" s="47" t="n">
+      <c r="M10" s="48" t="n">
         <v>43.7575</v>
       </c>
-      <c r="N10" s="49" t="n">
+      <c r="N10" s="50" t="n">
         <v>0.73</v>
       </c>
-      <c r="O10" s="44" t="n">
+      <c r="O10" s="45" t="n">
         <v>1.56208301980945</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="41" t="n">
+      <c r="B11" s="42" t="n">
         <v>1.67</v>
       </c>
-      <c r="C11" s="41" t="n">
+      <c r="C11" s="42" t="n">
         <f aca="false">40+O11</f>
         <v>41.5620830198095</v>
       </c>
-      <c r="D11" s="42" t="n">
+      <c r="D11" s="43" t="n">
         <v>42.7</v>
       </c>
-      <c r="E11" s="42" t="n">
+      <c r="E11" s="43" t="n">
         <v>7.1</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="44" t="n">
+      <c r="G11" s="45" t="n">
         <v>0.48</v>
       </c>
-      <c r="H11" s="45" t="n">
+      <c r="H11" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="I11" s="46" t="n">
+      <c r="I11" s="47" t="n">
         <v>11.487</v>
       </c>
-      <c r="J11" s="47" t="n">
+      <c r="J11" s="48" t="n">
         <v>37.33</v>
       </c>
-      <c r="K11" s="48" t="n">
+      <c r="K11" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="46" t="n">
+      <c r="L11" s="47" t="n">
         <v>11.487</v>
       </c>
-      <c r="M11" s="47" t="n">
+      <c r="M11" s="48" t="n">
         <v>37.335</v>
       </c>
-      <c r="N11" s="49" t="n">
+      <c r="N11" s="50" t="n">
         <v>2.27</v>
       </c>
-      <c r="O11" s="44" t="n">
+      <c r="O11" s="45" t="n">
         <v>1.56208301980945</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="n">
+      <c r="B12" s="42" t="n">
         <v>1.698</v>
       </c>
-      <c r="C12" s="41" t="n">
+      <c r="C12" s="42" t="n">
         <f aca="false">40+O12</f>
         <v>41.118493</v>
       </c>
-      <c r="D12" s="42" t="n">
+      <c r="D12" s="43" t="n">
         <v>44.2</v>
       </c>
-      <c r="E12" s="42" t="n">
+      <c r="E12" s="43" t="n">
         <v>6.4</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="44" t="n">
+      <c r="G12" s="45" t="n">
         <v>0.315</v>
       </c>
-      <c r="H12" s="45" t="n">
+      <c r="H12" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="46" t="n">
+      <c r="I12" s="47" t="n">
         <v>9.69</v>
       </c>
-      <c r="J12" s="47" t="n">
+      <c r="J12" s="48" t="n">
         <v>26.59</v>
       </c>
-      <c r="K12" s="48" t="n">
+      <c r="K12" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="L12" s="46" t="n">
+      <c r="L12" s="47" t="n">
         <v>9.69</v>
       </c>
-      <c r="M12" s="47" t="n">
+      <c r="M12" s="48" t="n">
         <v>26.59</v>
       </c>
-      <c r="N12" s="49" t="n">
+      <c r="N12" s="50" t="n">
         <v>5.9</v>
       </c>
-      <c r="O12" s="44" t="n">
+      <c r="O12" s="45" t="n">
         <v>1.118493</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="41" t="n">
+      <c r="B13" s="42" t="n">
         <v>1.904</v>
       </c>
-      <c r="C13" s="41" t="n">
+      <c r="C13" s="42" t="n">
         <f aca="false">40+O13</f>
         <v>41.1459495542593</v>
       </c>
-      <c r="D13" s="42" t="n">
+      <c r="D13" s="43" t="n">
         <v>44.7</v>
       </c>
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="43" t="n">
         <v>5.6</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="44" t="n">
+      <c r="G13" s="45" t="n">
         <v>0.375</v>
       </c>
-      <c r="H13" s="45" t="n">
+      <c r="H13" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="I13" s="46" t="n">
+      <c r="I13" s="47" t="n">
         <v>10.3</v>
       </c>
-      <c r="J13" s="47" t="n">
+      <c r="J13" s="48" t="n">
         <v>30</v>
       </c>
-      <c r="K13" s="48" t="n">
+      <c r="K13" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="46" t="n">
+      <c r="L13" s="47" t="n">
         <v>10.3</v>
       </c>
-      <c r="M13" s="47" t="n">
+      <c r="M13" s="48" t="n">
         <v>30</v>
       </c>
-      <c r="N13" s="49" t="n">
+      <c r="N13" s="50" t="n">
         <v>6.85</v>
       </c>
-      <c r="O13" s="44" t="n">
+      <c r="O13" s="45" t="n">
         <v>1.14594955425934</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="n">
+      <c r="A14" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="41" t="n">
+      <c r="B14" s="42" t="n">
         <v>1.904</v>
       </c>
-      <c r="C14" s="41" t="n">
+      <c r="C14" s="42" t="n">
         <f aca="false">40+O14</f>
         <v>41.1459495542593</v>
       </c>
-      <c r="D14" s="42" t="n">
+      <c r="D14" s="43" t="n">
         <v>43.7</v>
       </c>
-      <c r="E14" s="42" t="n">
+      <c r="E14" s="43" t="n">
         <v>4.6</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="44" t="n">
+      <c r="G14" s="45" t="n">
         <v>0.175</v>
       </c>
-      <c r="H14" s="45" t="n">
+      <c r="H14" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="46" t="n">
+      <c r="I14" s="47" t="n">
         <v>9.307</v>
       </c>
-      <c r="J14" s="47" t="n">
+      <c r="J14" s="48" t="n">
         <v>24.5</v>
       </c>
-      <c r="K14" s="48" t="n">
+      <c r="K14" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="46" t="n">
+      <c r="L14" s="47" t="n">
         <v>9.307</v>
       </c>
-      <c r="M14" s="47" t="n">
+      <c r="M14" s="48" t="n">
         <v>24.5</v>
       </c>
-      <c r="N14" s="49" t="n">
+      <c r="N14" s="50" t="n">
         <v>2.02</v>
       </c>
-      <c r="O14" s="44" t="n">
+      <c r="O14" s="45" t="n">
         <v>1.14594955425934</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="n">
+      <c r="A15" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="41" t="n">
+      <c r="B15" s="42" t="n">
         <v>1.905</v>
       </c>
-      <c r="C15" s="41" t="n">
+      <c r="C15" s="42" t="n">
         <f aca="false">40+O15</f>
         <v>40.75</v>
       </c>
-      <c r="D15" s="42" t="n">
+      <c r="D15" s="43" t="n">
         <v>45.2</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="44" t="n">
+      <c r="G15" s="45" t="n">
         <v>0.07</v>
       </c>
-      <c r="H15" s="45" t="n">
+      <c r="H15" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="46" t="n">
+      <c r="I15" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="47" t="n">
+      <c r="J15" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="48" t="n">
+      <c r="K15" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="46" t="n">
+      <c r="L15" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="47" t="n">
+      <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="55" t="n">
+      <c r="N15" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="O15" s="44" t="n">
+      <c r="O15" s="45" t="n">
         <v>0.75</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="57" t="n">
+      <c r="B16" s="58" t="n">
         <f aca="false">SUM(B7:B15)</f>
         <v>15.072</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="59" t="n">
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="60" t="n">
         <f aca="false">SUM(G7:G15)</f>
         <v>4.09</v>
       </c>
-      <c r="H16" s="57" t="n">
-        <f aca="false">SUM(H7:H15) * 0.5</f>
-        <v>34.5</v>
-      </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="57" t="n">
-        <f aca="false">SUM(K7:K15) * 0.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="57" t="n">
+      <c r="H16" s="58" t="n">
+        <f aca="false">SUM(H7:H15) * 0.25</f>
+        <v>17.25</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="58" t="n">
+        <f aca="false">SUM(K7:K15) * 0.25</f>
+        <v>3.75</v>
+      </c>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="58" t="n">
         <f aca="false">SUM(N7:N15)</f>
         <v>21.73</v>
       </c>
-      <c r="O16" s="60"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="62" t="n">
+      <c r="B17" s="57" t="n">
         <f aca="false">B16+G16+N16+H16+K16</f>
-        <v>82.892</v>
-      </c>
-      <c r="C17" s="62" t="s">
+        <v>61.892</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
